--- a/data/entry_meta.xlsx
+++ b/data/entry_meta.xlsx
@@ -1,41 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>条目页面URL</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subc</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=152107&amp;Type=bkzyb&amp;SubID=78305</t>
+  </si>
+  <si>
+    <t>准格尔煤田</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;中国石炭—二叠纪煤田。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;准格尔煤田位于鄂尔多斯市准格尔旗境内，北起东也兑乡，南至马棚一带，东临黄河，西至海子塔、长滩一线。煤田南北长约65千米，东西宽约21千米，面积近1400平方千米。&lt;/p&gt;&lt;p&gt;煤田地质&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;煤田总的构造轮廓为一东部隆起、西部坳陷，走向近南北，向西倾斜的单斜构造。北端地层走向转为北西，倾向南西，南端地层走向转为南西至东西，倾向北西或北。倾角一般小于10°，构造形态简单。煤田构造主要产生于地壳升降运动，构造形式以褶曲和正断层为主。煤田主要褶皱有窑沟背斜，窑沟向斜，西黄家梁背斜，老赵山梁背斜，双枣沟向斜等；断层稀少，主要有龙王沟正断层，焦稍沟正断层，田家石畔正断层。&lt;/p&gt;&lt;p&gt;煤系和煤层&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;煤田中的煤系为石炭—二叠纪煤系。石炭系上统本溪组、石炭系上统至二叠系下统太原组为本区主要含煤地层；其次为二叠系中、下统山西组。地层沉积序列与华北石炭—二叠纪各煤田基本相似。本溪组下部为褐红色铁质泥岩，局部为褐铁矿、铝质黏土岩；上部为深灰色泥岩、钙质泥岩、泥晶灰岩及石英砂岩，局部夹煤层，发育1～3层，均不可采，主要出露于煤田东缘黄河岸边。太原组全组含煤5层，6、9号煤层为主要可采煤层，其中6号煤层全区发育且较稳定，煤厚0.51～42.12米，平均厚度为23.06米，以黑岱沟矿区最厚，向南逐渐变薄，9号煤层煤厚0.15～14.67米，平均厚度3.65米。以窑沟矿区最厚，向南变薄。该组地层总厚12.31～95米，可采煤层累厚25.10米，含煤系数为35.56%，与下伏本溪组整合接触。山西组含煤5层，3层发育较稳定。&lt;/p&gt;&lt;p&gt;煤炭资源&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;煤田以长焰煤为主，局部为弱黏煤、气煤，深部以气煤为主，其变质因素主要以区域变质作用为主。埋深600米以浅煤层的镜煤最大反射率为0.57%～0.59%，准格尔区煤的变质程度低于全国同纪煤田。主要原因为煤田处于稳定地块，构造简单。另外煤层上部覆盖层较薄，影响着煤的变质程度。预测在煤田西部（深部）随着埋藏深度的加深，煤的变质程度增高，煤类发生变化，1000米以深主体煤类以气煤为主。截至2009年，准格尔煤田已建井生产的有38处，核定生产能力总计5586万吨。黑岱沟露天矿和哈尔乌素露天矿为特大型煤矿，2009年煤炭产量分别达到2160万吨和837万吨。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>刘亢;魏迎春;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=201167&amp;Type=bkzyb&amp;SubID=64381</t>
+  </si>
+  <si>
+    <t>山东钢铁集团有限公司</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;由济钢集团有限公司、莱芜钢铁集团有限公司和山东省冶金工业总公司所属单位的国有产权划转而设立的中国国有特大型钢铁联合企业。简称山钢集团。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>张海明;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=219297&amp;Type=bkzyb&amp;SubID=139637</t>
+  </si>
+  <si>
+    <t>风陵渡</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;黄河渡口。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em; text-align: justify;"&gt;位于山西省&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E8%8A%AE%E5%9F%8E%E5%8E%BF"&gt;芮城县&lt;/a&gt;风陵渡镇（见图），距县城30千米。为晋、秦、豫三省比邻要冲地带，有鸡叫一声听三省之称。风陵全称风后陵，亦作封陵，一说因有女娲的陵墓而得名，另一说则传为黄帝贤相风后的陵墓。在风陵渡附近赵村东南，有女娲墓，冢高2米，周边30米。&lt;/p&gt;&lt;p style="text-align: center"&gt;&lt;a class="word_img_font_p" style=" 3px solid rgb(0, 185, 239); width: 300px; height: 200px;"&gt;&lt;img src="https://www.zgbk.com/upload/wordresources/wikiimage/2021/08/17/1598238525656014878_thumbnail.jpg" class="baike_pic_single" originaltitle=" 风陵渡" title="风陵渡" originaldesc=" 2017年5月10日，航拍的风陵渡黄河公路大桥。" desc="" alt="风陵渡" style=" 3px solid rgb(0, 185, 239); width: 300px; height: 200px;" flowid="20200824110850167" cdoi="10052002000000085432238887752" width="300" vspace="0" height="200" border="0" imgResource="https://www.zgbk.com/upload/wordresources/wikiimage/2021/08/17/1598238525656014878.jpg" enlargetitle=" 风陵渡"&gt;&lt;font class="word_img_font"&gt; 风陵渡&lt;/font&gt;&lt;/a&gt;&lt;/p&gt;&lt;p style="text-align: justify; text-indent: 2em;"&gt;黄河经过河口镇后，为南北走向的吕梁山脉所阻，折向南流，奔腾于晋陕大峡谷。河水从壶口瀑布倾泻而下，出龙门继续南流，到潼关附近，因受东西走向的秦岭山脉其中一条支脉华山所阻，折向东流。风陵渡处于黄河东转的拐角。属暖温带大陆性半湿润气候。&lt;/p&gt;&lt;p style="text-align: justify; text-indent: 2em;"&gt;风陵渡自古以来就是河东、河南、关中咽喉要道，向来为兵家必争之地。魏国与秦国的古战场就在这里，东汉时的曹操讨伐韩遂、马超，西魏的宇文泰破高欢等著名战争，均发生的风陵渡。明清时在此设巡检司和船政司，管理防守和运输事宜。历史上一直以摆船渡河连接陕、豫二省。建有横跨山西、陕西黄河两岸的铁路大桥和公路大桥，使风陵渡镇成为中国唯一有两座大桥的镇。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;王锚深．山西导游．太原：山西科学技术出版社，1999．&lt;/p&gt;&lt;p&gt;郭丛．风陵得名之由来及嬗变过程．中国历史地理论丛，2016，31（1）：141-151．&lt;/p&gt;&lt;p&gt;伯仁，鲁顺民．风陵渡 悠远岁月的珍藏．科学之友，2007，（7）：36．&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>李继彦;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=46560&amp;Type=bkzyb&amp;SubID=76106</t>
+  </si>
+  <si>
+    <t>沙漠生态农业</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;以生态农业的思维和模式，在沙漠地区建设新农业绿洲。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em; text-align: justify;"&gt;干旱地区绿洲周围流沙的固定及可利用土地资源的开发，是沙漠化土地整治所包括的两个基本内容——改造与利用相结合。这两个方面相互联系、相互补充，才能逐步达到生态文明建设与经济、社会建设多赢的目的。&lt;/p&gt;&lt;p style="text-indent: 2em; text-align: justify;"&gt;生态农业是运用生态学和生态经济学原理，应用现代科学技术方法发展起来的一种多层次、多结构、多功能和集约管理的综合农业生产体系。生态农业系统是一个人类和环境相互交织的过程，在地域上表现为一个耗散的生态结构，其功能具有可变性，即受制于自然和人类经济活动两方面的影响。其核心是由人类去调节与控制农业生产系统，并按经济目的精心安排系统的生物组分，干预、改造自然生态系统。在用人工植被代替天然植被的过程中，通过各种人工措施，强化生态系统的物质能量循环过程，从而获得优质高产的生物量，同时也创造一个良好的生产条件与生活环境。正是由于生态农业可以使第一性产品大幅度增加，解决干旱区人、畜需求与资源的矛盾，才能使大面积退化草场能够被封育保护、土地沙漠化的逆转成为可能。&lt;/p&gt;&lt;p style="text-indent: 2em; text-align: justify;"&gt;新农业绿洲建设采取的必要措施有：&lt;span style="text-indent: 2em; font-size: 1em;"&gt;①根据绿洲唯水性的特征，以内陆河流域作为生态单元，全面规划绿洲生产和生态用水。根据“上、中、下游统筹兼顾，地表水、地下水和再生水源利用统一管理，用水比例合理分配”的原则，实施以水为中心的灌溉绿洲的区域性总体布局和结构调整，建立高效、稳定的流域人工生态系统。调整土地资源开发利用的程度，使其与水资源实际最大可能负担的灌溉能力相适应，也即所谓的“以水定田”，决定绿洲的合理规模。同时，以发挥水资源效能为原则，实施以引（渠首工程）、输（渠道防渗）、蓄（平原水库）、灌为主的一系列措施，并根据不同土地条件实施分区管理，合理灌溉（细流沟灌、畦灌等），把发展竖井排灌、扩大水资源和防治次生盐渍化结合起来。&lt;/span&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;②以灌溉绿洲为中心，建立绿洲外围封沙育草带（利用冬季灌溉余水）、绿洲边缘乔灌结合的防沙林带与绿洲内部窄林带、小网格的护田林网相结合的防护体系。&lt;/span&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;③对于绿洲边缘的流动沙丘，采取在沙丘上设置平铺沙障，障内栽植固沙植物与沙丘间营造片林相结合的防护体系，尽可能地保护和扩大绿洲荒漠间的过渡带。&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>陈广庭;</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=369566&amp;Type=bkztb&amp;SubID=192</t>
+  </si>
+  <si>
+    <t>粮食作物</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;&lt;/p&gt;
+&lt;p style="text-indent: 2em;"&gt;经加工而成为人类基本食粮的作物。&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;明代时贵阳地区粮食作物主要是稻、麦、小米、高粱和豆类。明末引入玉米和薯类。中华民国时期主要有稻、玉米、麦、薯类、豆类和杂粮。1938年贵阳县粮食总产量4.03万吨。1949年粮食总产量为6.93万吨。中华人民共和国成立后，由于广泛调动了农民生产积极性，同时改善了粮食生产条件，引进和推广优良品种，普及推广农业适用技术，粮食生产水平显著提高。到1957年，全市粮食产量为9.56万吨，比1949年增长38%。1958～1962年，“大跃进”和“共产风”使贵阳市农业经济发展受到严重挫折，1962年粮食总产量比1957年下降10.1%。1963～1965年，实行三包一奖，农村经济得到较快恢复和发展，1965年全市粮食总产量9.14万吨，接近1957年的水平。从1964年的“四清”运动到“文化大革命”，贵阳粮食生产呈震荡性波动，粮食总产长期徘徊不前。1969年粮食总产量9.14万吨。1971年粮食总产量11.73万吨。1976年9.35万吨。中共十一届三中全会以后，全市粮食生产以科技为先导，大力推广先进农业适用技术和以杂交良种为主的高产栽培模式，综合配套增产技术，使粮食生产稳定发展。1984年总产量达13.1万吨。种类主要是稻谷、小麦、玉米、薯类和杂粮。1996年实行市带县体制，粮食总产量达54.86万吨。随着国家持续实施对农业的补贴政策和科技的进步，尤其是2005年以来实施的“粮食增产工程”和“粮食万亩连片高产创建工程”，对促进粮食生产，稳定粮食总产起到了十分重要的作用。2009年粮食总产值达到64.11万吨的峰值。2011年，贵阳市为加快种植业结构调整力度，提出“退粮进经”，强调次年“粮经比”比例调整为3：7，而且当年还遭遇了严重夏伏旱，粮食总量降到40.24万吨。2012年以来粮食生产呈恢复性增长，但由于播种面积的减少，粮食总产量稳定在43万吨左右。2014年粮食播种面积11.27万公顷，粮食产量45.92万吨，比上年增产6.1%。其中夏粮产量8.81万吨，增产1.9%；秋粮产量37.11万吨，增产7.2%。种类主要是稻谷18.8万吨，小麦1.03万吨，玉米16.12万吨，大豆0.76万吨，薯类8.72万吨。2020年，粮食种植面积132.25万亩，产量39.63万吨。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=284334&amp;Type=bkzyb&amp;SubID=154510</t>
+  </si>
+  <si>
+    <t>河西走廊</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-indent: 2em;"&gt;中国甘肃省西北部狭长高平地。中国内地通往新疆维吾尔自治区的要道。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>韩添丁;方创琳;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -48,16 +182,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -104,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -139,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -318,182 +457,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="148.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>序号</v>
-      </c>
-      <c r="B1" t="str">
-        <v>条目页面URL</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>subc</v>
-      </c>
-      <c r="E1" t="str">
-        <v>body</v>
-      </c>
-      <c r="F1" t="str">
-        <v>ref</v>
-      </c>
-      <c r="G1" t="str">
-        <v>author</v>
-      </c>
-      <c r="H1" t="str">
-        <v>remark</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=184686&amp;Type=bkzyb&amp;SubID=83324</v>
-      </c>
-      <c r="C2" t="str">
-        <v>束水攻沙</v>
-      </c>
-      <c r="D2" t="str">
-        <v>
-          &lt;p style="text-indent: 2em;"&gt;中国古代水利专家总结提出的治理黄河的技术理论和工程措施。&lt;/p&gt;
-        </v>
-      </c>
-      <c r="E2" t="str">
-        <v>&lt;p style="text-indent: 2em;"&gt;源于西汉张戎的黄河冲淤关系分析及水力刷沙思想。西汉末年，黄河下游连年决口泛滥，王莽时期（公元8～23）议治河方略，大司马史张戎提出河患的症结在于泥沙，单纯筑堤不能解决黄河频繁决溢问题。张戎明确提出了水流的挟沙能力与水流速度之间的关系，认为河水本身具有冲刷特性，如果水流具有较高的流速，就可以依靠河水自身的冲刷力量排沙刷槽。明万历（1573～1620）年间总理河道&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E6%BD%98%E5%AD%A3%E9%A9%AF"&gt;潘季驯&lt;/a&gt;和万恭在河道过水能力与泥沙冲淤关系认知的基础上，提出了筑堤束水、以水攻沙的治河方略，并用于黄河下游的治河实践。随着治河实践丰富，“束水攻沙”的工程技术不断完善，提出了束水攻沙堤防工程体系构想，即在黄河主河槽修筑&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E7%BC%95%E5%A0%A4"&gt;缕堤&lt;/a&gt;，在距离缕堤二至三里的滩地上修筑&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E9%81%A5%E5%A0%A4"&gt;遥堤&lt;/a&gt;，在缕堤和遥堤之间修筑格堤（见图）。缕堤约束河流，取其冲刷，遥堤汛期约拦洪水，在缕堤冲毁后，河工退守遥堤，格堤用以固滩和护卫遥堤。这一堤防工程体系在黄河低水、中水时可以提高河水流速，冲深河槽；在汛期则可以保护滩地，使河道不致决口。按照束水攻沙的治河思路，潘季驯对黄河下游河道堤防进行了大规模整治，形成较为完整的堤防系统，河道基本被固定下来，水患明显减少。潘季驯的束水攻沙理论与现代河流动力学原理是一致的。20世纪30年代德国河流动力学者&lt;span&gt;H.恩格斯&lt;sup attr="Huber Engels, 1854～1945"&gt;[注]&lt;/sup&gt;&lt;/span&gt;在德国进行了黄河河工模型试验，验证了束水攻沙治黄理论的正确性。不过，潘季驯的束水攻沙理论只限于定性的认识，还缺乏定量分析。他所设计的堤防体系约束了河道，减轻了频繁决溢灾害，但由于工程技术水平的限制和黄河水沙问题的复杂性，通过束水攻沙、减轻黄河下游河床淤积的努力并未在全局上取得明显的实效。&lt;/p&gt;&lt;p style="line-height: normal; text-indent: 0em; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size:21px"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style="text-align: center"&gt;&lt;a class="word_img_font_p" style=" 3px solid rgb(0, 185, 239); width: 300px; height: 170px;"&gt;&lt;img src="https://www.zgbk.com/upload/wordresources/wikiimage/2021/04/25/1591059965497064949_thumbnail.png" class="baike_pic_single" originaltitle=" 束水攻沙" title="潘季驯束水攻沙堤防工程体系示意图 " originaldesc=" " desc="" alt="潘季驯束水攻沙堤防工程体系示意图 " style=" 3px solid rgb(0, 185, 239); width: 300px; height: 170px;" flowid="20200604111359299" cdoi="10052002000000078513612000040" width="300" vspace="0" height="170" border="0" imgResource="https://www.zgbk.com/upload/wordresources/wikiimage/2021/04/25/1591059965497064949.png"&gt;&lt;font class="word_img_font"&gt;潘季驯束水攻沙堤防工程体系示意图 &lt;/font&gt;&lt;/a&gt;&lt;/p&gt;&lt;p style="line-height: normal; text-indent: 0em; text-align: center;"&gt;&lt;br&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="F2" t="str">
-        <v>&lt;p&gt;周魁一．中国科学技术史·水利卷．北京：科学出版社，2002．&lt;/p&gt;&lt;p&gt;郭涛．中国水利科学技术史．北京：中国建筑工业出版社，2013．&lt;/p&gt;</v>
-      </c>
-      <c r="G2" t="str">
-        <v>陈茂山;</v>
-      </c>
-      <c r="H2" t="str"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=184694&amp;Type=bkzyb&amp;SubID=83324</v>
-      </c>
-      <c r="C3" t="str">
-        <v>水门</v>
-      </c>
-      <c r="D3" t="str">
-        <v>
-          &lt;p style="text-indent: 2em;"&gt;古代水闸。建在河床上或河湖岸边，用以控制水位、取水或泄水的建筑物。又称斗门、陡门、牐。&lt;/p&gt;
-        </v>
-      </c>
-      <c r="E3" t="str">
-        <v>&lt;p style="text-indent: 2em;"&gt;自古代出现治水活动开始，可能就有了水门（见&lt;span style="font-size: 1em;"&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E4%B8%AD%E5%9B%BD%E5%8F%A4%E4%BB%A3%E9%97%B8%E6%B6%B5"&gt;中国古代闸涵&lt;/a&gt;&lt;/span&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;）。西汉元帝（公元前48～前33）时，&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E5%8F%AC%E4%BF%A1%E8%87%A3"&gt;召信臣&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;大修南阳水利，“起水门提阏凡数十处”，当时已大量修筑和使用水门。&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E8%B4%BE%E8%AE%A9"&gt;贾让&lt;/a&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E8%B4%BE%E8%AE%A9%E6%B2%BB%E6%B2%B3%E4%B8%89%E7%AD%96"&gt;治河三策&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;中指出，西汉荥阳漕渠引黄河水即有土木结构的水门。他主张黄河从淇口以东筑石堤，多开水门，在下游“旱则开东方下水门溉冀州，水则开西方高水门分河流”。东汉&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E7%8E%8B%E6%99%AF%E6%B2%BB%E6%B2%B3"&gt;王景治河&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;时用“十里立一水门”作为治理黄河和汴河的主要措施之一。南朝宋时，在扬州的&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E9%82%97%E6%B2%9F"&gt;邗沟&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;上已出现了通航用的水门。北魏成书的&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E3%80%8A%E6%B0%B4%E7%BB%8F%E6%B3%A8%E3%80%8B"&gt;《水经注》&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;上记载了大量各种类型的水门。唐宋以后，水闸使用更为普遍，广泛地用于引水、泄水、分洪、挡潮、冲沙和通航各方面，特别是在运河上。据&lt;/span&gt;&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E3%80%8A%E5%AE%8B%E5%8F%B2%C2%B7%E6%B2%B3%E6%B8%A0%E5%BF%97%E3%80%8B"&gt;《宋史·河渠志》&lt;/a&gt;&lt;span style="text-indent: 2em; font-size: 1em;"&gt;记载，只在淮扬运河和江南运河上已建各种水闸七八十座。最初的水门是木土筑成，后发展为木石结构，遗存至今的都是条石砌筑而成。古代水闸闸门则多为木制叠梁式。&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="F3" t="str"/>
-      <c r="G3" t="str">
-        <v>郑连第;</v>
-      </c>
-      <c r="H3" t="str"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=185918&amp;Type=bkzyb&amp;SubID=83336</v>
-      </c>
-      <c r="C4" t="str">
-        <v>河道总督</v>
-      </c>
-      <c r="D4" t="str">
-        <v>
-          &lt;p style="text-indent: 2em;"&gt;清代主管黄河、运河或海河河务的行政长官。&lt;/p&gt;
-        </v>
-      </c>
-      <c r="E4" t="str">
-        <v>&lt;p style="text-indent: 2em;"&gt;负责&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E5%A0%A4%E9%98%B2"&gt;堤防&lt;/a&gt;修守、防汛抢险、河道治理等有关河工的营建、维修、养护等事宜。明代始设管理黄、运两河的高级官吏，明初以尚书、侍郎或都御史管理治河，最初多为钦差大臣性质。明成化（1465～1487）后，始称总督河道，简称总河，成化七年（1471）设总理河道侍郎。嘉靖二十年（1541），以都御史加工部职衔，管理河南、山东、直隶河道，万历五年（1577），改总理河漕兼提督军务。与清代的河道总督有所不同，明代的总督河道或总理河漕并非专职常设官员。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;清代始设河道总督一职，简称总督，驻济宁，为正二品，加尚书或都御史衔者为从一品。顺治元年（1644）七月，授杨方兴首任河道总督。河道总督常带有兵部尚书、右都御史或侍郎、副都御史等衔，其职责除了对运河的管理，保证运河畅通和对黄、淮等河道的治理外，也兼管地方治安、赈济灾民以及配合国家的军事行动。这些职责在清朝初期立足未稳和晚期内忧外患之际所发挥的作用尤为明显。雍正、乾隆时期，黄河形势日趋恶化，河患加剧，对黄河的治理实行分段管理。雍正七年（1729），分河道总督为江南河道总督和河东河道总督。江南河道总督也称南河总督，驻清江浦，管理江苏、安徽两省黄、运（江北段）、淮河；河东河道总督也称东河总督，驻济宁，管理山东、河南两省黄、运两河。雍正八年（1730），增置直隶河道总督，管理海河及直隶水利，驻天津。依次简称南河、东河及北河。后不久撤销北河，改归地方管理。咸丰五年（1855）&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E9%BB%84%E6%B2%B3%E6%94%B9%E9%81%93"&gt;黄河改道&lt;/a&gt;及运河停止漕运后，南河及东河先后裁撤，河务划归地方管理。清朝治河较有成就的河道总督有&lt;a target="_blank" class="word_hotlink" href="https://www.zgbk.com/ecph/words?SiteID=1&amp;amp;Name=%E9%9D%B3%E8%BE%85"&gt;靳辅&lt;/a&gt;、张鹏翮、康基田、黎世序等。&lt;/p&gt;</v>
-      </c>
-      <c r="F4" t="str"/>
-      <c r="G4" t="str">
-        <v>颜元亮;</v>
-      </c>
-      <c r="H4" t="str"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=48933&amp;Type=bkzyb&amp;SubID=76901</v>
-      </c>
-      <c r="C5" t="str">
-        <v>河口治理</v>
-      </c>
-      <c r="D5" t="str">
-        <v>
-          &lt;p style="text-indent: 2em;"&gt;根据排洪、航运、灌溉、围垦等需要，充分开发利用河口资源，采用整治、疏浚和其他措施改造河口的工程。&lt;/p&gt;
-        </v>
-      </c>
-      <c r="E5" t="str">
-        <v>&lt;p style="text-indent: 2em;"&gt;河口系指河流与受水体的接合地段，按受水体可分为入海河口（潮汐河口）、入湖河口、入库河口、支流河口和内陆沙漠内的“干旱三角洲”河口等。其中入海河口又依据陆相径流和海相潮汐作用的对比关系分为4类：①强潮海相河口，以钱塘江口为代表。其特点是潮差大，潮流强；泥沙主要来自口外海滨，平面呈显著的喇叭口状，咸水对泥沙运动影响不大，强潮将泥沙推向口内形成沙坎。②弱潮陆相河口，以黄河口为代表。其特点是潮差小，潮流弱；泥沙主要来自陆域，河口改道频繁，形成扇形三角洲，各汊道口门附近多有拦门沙。③湖源海相河口，以黄浦江口为代表。其特点是径流经上游湖泊调节，变幅小，潮差中等；泥沙主要来自口外海滨，河床沿程变化小，河线比较弯曲，口外形成拦门沙。④陆海双相河口，以长江口为代表。其特点是潮流和径流相互消长，力量相当，流域来沙和海域来沙都较丰富充沛，潮流段放宽率介于强潮海相和湖源海相河口之间，河线比较顺直。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;通常所说的河口治理是指入海河口的治理。对于入海河口，从平面淤积形态特征来看，又可分为两类。当河流来水含沙量较大，而潮汐不是很强，潮流和沿岸流不能将陆相来沙带走时，在河口区就形成淤积体，并凸进受水体，形成许多放射状的汊道而各汊道又会形成沙滩，如此逐渐发展下去，就形成扇形的分汊河口，及三角洲河口，如黄河口、长江河口、珠江河口等；反之，当河流来水的含沙量较小，河口区又有较强的潮流和沿岸流可以将泥沙带走时，往往会形成单一的、河道向口外方向逐渐放宽而水深逐渐增大的喇叭口形的河口，称之为三角港，如钱塘江河口。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;河口的冲淤演变是水流、泥沙与河床相互作用的结果。潮汐河口在径流、潮流共同作用下，形成周期性的往复水流；海水与河水相遇后，又发生盐水与淡水两种不同密度水体的混合，使河口水流流场更为复杂，河床演变常常复杂多变。因此河口河床的自然演变往往不能符合人类开发利用河口的要求，如河口淤积将影响排洪或航运，需要进行治理，才能满足排洪和航运的要求。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;河口治理应遵循“综合开发、综合治理”的原则，遵循河口河床的演变发展规律，因势利导。河口治理通常采用下列一种或两种以上工程措施。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;①疏浚：在河口地区用机具挖除水下土石方，开辟、维持航道，取得所需水深，或者为泄洪排涝扩大河槽过水能力。疏浚工程的规划、设计包括通道挖槽定线、确定挖槽断面尺度、泥沙处理和选择挖泥机具等。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;②导流：在河口整治区通过布设导堤、丁坝、顺坝、潜堤（坝）等建筑物，改变水流流场、控制水沙分配、调整河床冲淤部位等，通常称为河口整治工程。导流工程的规划设计包括整治线确定、建筑物平面布置和类型及结构型式的选择。河口地区波浪、水流、泥沙运动等自然条件复杂，整治方案一般需经物理模型试验验证后实施。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;③爆破：如河口拦门沙范围较小，且拦门沙前缘较陡，可自其外侧前缘陡坡处开始，以此向陆域方向爆破，使拦门沙淤积体逐渐向深海方向崩塌并形成底层异重流，流入深海区。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;④筑闸：为挡潮排涝、御卤蓄淡，改善河口区的用水，在中、小河口潮区界内修建水闸。由于建闸改变了河口水沙条件，闸上、下河槽都可能发生泥沙淤积，直接影响航运和河道的泄洪排涝，还影响生态环境，规划设计筑闸时必须审慎。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;⑤改道：对因淤积严重而出现汊道和尾闾摆动的河口，可采用人工改道方法，将河口流路引向新的行水区域。&lt;/p&gt;</v>
-      </c>
-      <c r="F5" t="str"/>
-      <c r="G5" t="str">
-        <v>郑金海;</v>
-      </c>
-      <c r="H5" t="str"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=390952&amp;Type=bkztb</v>
-      </c>
-      <c r="C6" t="str">
-        <v>汪明</v>
-      </c>
-      <c r="D6" t="str">
-        <v>
-                  &lt;p style="text-indent: 2em;"&gt;&lt;/p&gt;
-&lt;p style="text-indent: 2em;"&gt;（1970～　）&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p style="text-indent: 2em;"&gt;陶瓷工艺家，第七届中国工艺美术大师。&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-                </v>
-      </c>
-      <c r="E6" t="str">
-        <v>&lt;p style="text-indent: 2em;"&gt;江西鄱阳人。毕业于景德镇陶瓷学院美术系。师从中国工艺美术大师徐子印和王怀俊。1995年成为景德镇“老厂”（瓷器交易市场）开瓷器店的第一人。2009年成立景德镇中山陶瓷绘画研究院。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;汪明在传统陶瓷艺术的基础上进行技法创新，将传统粉彩、珐琅彩的敷色与现代山水画相结合，给陶瓷山水瓷画注入了新的生机和内涵。他擅长色釉装饰手法、现代青花技法，将釉上泼墨泼彩技法纯熟地运用到各类题材中。他还提炼了一套自己独有的绘画技法——日月皴法（挤水法）。他的作品笔法大胆不失细腻，沉着而又流畅，深具传统文人画情怀。2004年出版《西北风》个人专集画册。2009年出版个人第二本画册《汪明陶艺作品集》。&lt;/p&gt;&lt;p style="text-indent: 2em;"&gt;汪明的作品多次在全国陶瓷艺术设计评比中获奖。《乡情》荣获第六届中国工艺美术百花奖一等奖，《观瀑图》于第十届陶瓷节获奖并选送北京参加国庆50周年作品展，《踏花归来马蹄香》入选第四届中国当代工艺美术双年展。主要作品还有《牧歌图》（藏于中国工艺美术馆）、《林冲夜奔》（藏于中国国家博物馆）、《精瓷阁藏太湖石》（藏于中国工艺美术大师博物馆）等。&lt;/p&gt;</v>
-      </c>
-      <c r="F6" t="str"/>
-      <c r="G6" t="str">
-        <v>韩晶晶;</v>
-      </c>
-      <c r="H6" t="str"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>https://www.zgbk.com/c/2021-10-09/72454.shtml</v>
-      </c>
-      <c r="C7" t="str">
-        <v>马王堆导引术第十一式：仰呼</v>
-      </c>
-      <c r="D7" t="str"/>
-      <c r="E7" t="str"/>
-      <c r="F7" t="str"/>
-      <c r="G7" t="str"/>
-      <c r="H7" t="str"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>